--- a/data/trans_dic/P12B1_1_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P12B1_1_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que requiere cuidados especiales &lt;16 años</t>
+          <t>Población que requiere cuidados especiales &lt;16 años (tasa de respuesta: 99,71%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>44,33%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>36,41%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>37,56%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,96%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>27,5%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>20,53%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>25,02%</t>
+          <t>1,49%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,56%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,04%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,41%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,74; 81,37</t>
+          <t>0,49; 4,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,97; 78,35</t>
+          <t>0,0; 4,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,69; 76,2</t>
+          <t>0,0; 3,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,5; 30,9</t>
+          <t>0,75; 6,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,54</t>
+          <t>0,42; 3,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,12; 59,09</t>
+          <t>0,0; 3,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,88; 50,28</t>
+          <t>0,0; 2,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,08; 58,76</t>
+          <t>0,52; 3,24</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,99</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0,32; 2,62</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 3,29</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,91%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>13,86%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>1,03%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1,51%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0,65%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1,93%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,37</t>
+          <t>0,0; 4,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,29</t>
+          <t>0,0; 4,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,66</t>
+          <t>0,0; 4,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,87</t>
+          <t>0,0; 4,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,68; 34,44</t>
+          <t>0,0; 4,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,87</t>
+          <t>0,57; 5,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,08; 17,51</t>
+          <t>0,0; 2,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,04; 28,71</t>
+          <t>0,92; 5,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,69; 14,44</t>
+          <t>0,3; 3,09</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0,43; 3,69</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,3</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0,81; 4,01</t>
         </is>
       </c>
     </row>
@@ -857,42 +942,57 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>48,09%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>41,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>25,62%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>44,72%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>10,54%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>13,6%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 91,4</t>
+          <t>0,0; 63,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>0,0; 66,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 91,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,31</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 34,31</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 47,24</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>33,02%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>26,29%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>21,65%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>1,15%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1,95%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,77%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2,89%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,96; 53,29</t>
+          <t>0,34; 2,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,44; 58,21</t>
+          <t>0,63; 12,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,11; 64,87</t>
+          <t>0,26; 2,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,87; 23,02</t>
+          <t>1,37; 15,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,27; 21,47</t>
+          <t>0,44; 2,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,54; 14,16</t>
+          <t>0,23; 2,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,26; 31,69</t>
+          <t>0,21; 1,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,62; 40,46</t>
+          <t>0,53; 2,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,49; 37,99</t>
+          <t>0,51; 2,06</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0,69; 6,24</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0,27; 1,65</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1,2; 9,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que requiere cuidados especiales &lt;16 años (tasa de respuesta: 99,71%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7074</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4370</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4636</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>12772</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>6917</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3589</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2138</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>13991</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>4370</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>8225</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>14910</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2097; 18891</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14785</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14983</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3815; 32504</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2104; 18533</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14798</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12871</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>4897; 30314</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15639</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2516; 20671</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>5726; 34859</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3053</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2854</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2489</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>5421</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5060</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7041</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1782</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>10437</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>8113</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>9894</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4270</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>15858</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15427</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14912</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13530</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16968</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17493</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1918; 19340</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 9600</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3830; 24261</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2366; 24249</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2841; 24160</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15116</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>6637; 32910</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16986</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>29804</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>16986</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>29804</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 50162</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 76820</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 55287</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 103530</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>10127</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>24210</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>7124</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>47997</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>11977</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>7041</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>12575</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>22104</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>31251</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>12495</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>60572</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3073; 25531</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4768; 96660</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2029; 19550</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>14062; 155442</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4507; 29953</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1926; 20519</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1746; 14374</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5674; 27124</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>9896; 39666</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>11070; 99895</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>4425; 26584</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>25085; 191507</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
